--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/4_fold/133.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/4_fold/133.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-5.413081146611291</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>9.49892305634153</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>3.665716669082737</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-9.228348304764632</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-6.236719508839387</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-6.264661312122061</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-6.122933453296546</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>9.23922475149795</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>3.151375041246951</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-9.881630493585165</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-6.184138887946689</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-6.23411642062519</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-6.964884803008594</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>8.931198227921499</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2.541317676227433</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-10.68873588749824</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-6.110043908868481</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-6.191939598700088</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-7.905045056854809</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>8.587242137470376</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1.860100540161721</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-11.45091429078123</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-6.067865925820138</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-6.224505722677577</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-8.933152073658226</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>8.211110867701857</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1.11515932967055</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-12.21469124538892</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-5.942876053513929</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-6.358658466135474</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-10.02876019611236</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>7.810284428885542</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.3213084682081369</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-12.9683651744855</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-5.825749044595093</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-6.487646566858805</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-11.16509144813425</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>7.394559499753607</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-0.5020493773905301</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-13.69995373584667</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-5.771934984639626</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-6.633191711571095</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-12.3324368060236</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>6.967488110739576</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-1.347879285906383</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-14.44217062570384</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-5.673598661885894</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-6.589922242866697</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-13.52179637813807</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>6.532362857473944</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-2.209660155873571</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-15.04449389651606</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-5.592768227455524</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-6.665997364722423</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-14.72336137349967</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>6.09277227008553</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-3.080284777142583</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-15.68555373398989</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-5.500276865095945</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-6.5681579002629</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-15.92894645280506</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>5.651710941564493</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-3.953822252959238</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-16.29359193899979</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-5.404564810274282</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-6.350061665649728</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-17.11468508155583</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>5.217910404503391</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-4.812979475885413</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-16.8973869638645</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-5.308563655229041</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-6.106106123926573</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-18.27930816503241</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>4.791834955128712</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-5.656836890912565</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-17.68552710863345</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-5.197009073828838</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-5.710249711330484</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-19.41766521596069</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>4.375368890781764</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-6.481662580874584</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-18.2879273635038</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-5.008422122540099</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-5.260030019937516</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-20.52076174627901</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>3.971802830201892</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-7.280939359608083</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-19.0032994594435</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-4.827144685213664</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-4.824172235310236</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-21.57820086398294</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3.584940459316107</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-8.04713389333696</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-19.74045804383411</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-4.573501899946066</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-4.414967813410327</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-22.56144879472233</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3.225220812779551</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-8.759571306725412</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-20.4397087723065</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-4.303043256401639</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-4.062613836249356</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-23.46792163006253</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>2.893589209264903</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-9.416379362889868</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-21.27668850924818</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-4.065151877298274</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-3.671948316160309</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-24.29218524014056</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>2.592033716290465</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-10.01362062417849</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-21.87414819897617</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-3.780418806668806</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-3.547478457524333</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-25.02660436942548</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>2.323347679598384</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-10.5457627710908</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-22.6416702015882</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-3.458887999272178</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-3.387784685447718</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-25.66459319200332</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>2.089940512822664</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-11.00803387517163</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-23.26754153724031</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-3.193040877059135</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-3.396981949478841</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-26.1841452254709</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1.899863251540493</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-11.38448857725883</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-23.78186750113547</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-2.930715973042796</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-3.442807489778046</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-26.59352817763189</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1.75009116838065</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-11.68111745630827</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-24.16119059791397</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-2.707572847178874</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-3.650410377844113</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-26.89888053747333</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1.638378507191862</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-11.90236831137379</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-24.50319454039526</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-2.541949068663141</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-3.80158609875241</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-27.10251616413491</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1.563878746394128</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-12.04991770822165</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-24.77617095357763</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-2.349773629785475</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-4.061770562308578</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-27.2074950883463</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1.525472378752234</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-12.12598287031076</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-24.84263989506222</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-2.295748336142294</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-4.325515151256745</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-27.20021134751055</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1.528137123418341</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-12.12070524976503</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-24.92421129736238</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-2.231526668138054</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-4.562232318219765</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-27.09668385622746</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1.566012486698449</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-12.04569176049295</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-24.90398713244413</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-2.189127510993164</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-4.799845258668514</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-26.90914725229187</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.634622446375299</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-11.9098073219434</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-24.76220061126397</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-2.186687140624517</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-4.971298928814178</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-26.64374819031648</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1.73171825891683</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-11.71750564978297</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-24.54309945335085</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-2.244909771897683</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-5.0861613707241</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-26.30618004164163</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1.855217013734452</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-11.47291202170039</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-24.34397339428557</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-2.28988846513489</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-5.115554553453606</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-25.88631652237627</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>2.008823395219691</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-11.16868917994303</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-24.02130603581704</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-2.362590130241589</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-5.152868605027611</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-25.40176640770174</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>2.186095261786342</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-10.81759601252979</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-23.68313318234624</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-2.443797471840233</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-5.117720159682839</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-24.86617391783749</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>2.382040897793653</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-10.42951878787474</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-23.31236437296823</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-2.504757857379651</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-4.972903446156747</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-24.28549517306132</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>2.594481266384203</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-10.00877316512333</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-22.95991324095124</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-2.623071088419296</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-4.865072662048715</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-23.66441742833211</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>2.821701543001219</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-9.558755414630559</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-22.54299022448706</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-2.697393040165871</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-4.642366311144523</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-22.99394454027072</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>3.066992951979237</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-9.072947150830464</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-22.18150931529878</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-2.784693852379508</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-4.439970721693295</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-22.28945316636942</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>3.324729968336099</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-8.562489923832494</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-21.70504139410773</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-2.85393459847731</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-4.219777786503639</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-21.56369768918658</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>3.590246422083283</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-8.036625247435135</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-21.23881235264803</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-2.953047101487465</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-3.98529841264416</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-20.82143781646914</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>3.861800981930054</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-7.498801889512391</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-20.90722842885839</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-3.047754346649533</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-3.666983827940868</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-20.06638082414885</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>4.138037347043137</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-6.951706051573515</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-20.37701204967031</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-3.130763387349266</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-3.479544046357589</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-19.29095886125037</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>4.421724203318305</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-6.389854253811219</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-19.96684098795156</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-3.218059229358486</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-3.288383359525899</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-18.50839030961392</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>4.708025627389035</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-5.82282421256032</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-19.50294863907981</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-3.292531115604967</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-3.043420482783995</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-17.73103463679313</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>4.992419928275083</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-5.259571295861252</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-19.10936084917715</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-3.38858031595957</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-2.796285437369738</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-16.96359611330257</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>5.273186056306455</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-4.703504103124716</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-18.65430355309437</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-3.465280510519582</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-2.620992737999523</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-16.21038400850938</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>5.548747472336605</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-4.157745025586457</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-18.15647934848316</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-3.567023080033625</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-2.445417853575195</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-15.46684983833443</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>5.820768231823027</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-3.618998342878445</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-17.72476633590992</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-3.657943029430093</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-2.251057975723047</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-14.7439524016853</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>6.085239076117668</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-3.095204532781985</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-17.23419674665899</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-3.713291225815545</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-2.109614357960064</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-14.05381583790752</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>6.337724408680138</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-2.595148450270935</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-16.77431662575804</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-3.81206326982315</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-2.046719903108627</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-13.39994216552781</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>6.576943021762915</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-2.121367572356759</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-16.33512710259814</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-3.896176524270814</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-1.960039873172776</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-12.78470302127858</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>6.802027255948244</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-1.675580329036926</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-15.8388244652535</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-3.934817378509203</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-1.934157597511877</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-12.20230391826223</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>7.015097014785883</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-1.253588176761854</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-15.40850169420061</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-3.98984168324016</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-1.874600144986395</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-11.65755880676053</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>7.214391122442485</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-0.8588791862202415</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-15.01026768996608</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-4.063289707376781</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-1.901561942540353</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-11.15804259161332</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>7.397138312377489</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-0.4969419482771607</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-14.55761501358138</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-4.111904105144876</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-1.978588618648317</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-10.70295393066825</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>7.56363175430607</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-0.1671958299992314</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-14.13663448440632</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-4.173784806868804</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-2.018114213553388</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-10.29102637166003</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>7.714334777717135</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>0.1312768089643127</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-13.80272292497674</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-4.213518277711485</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-2.147587935067517</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-9.915327784930952</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>7.85178349090267</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>0.4034988202953557</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-13.3309827306497</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-4.25055127082104</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-2.320984088376373</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-9.576221929612101</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>7.975844813179791</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>0.6492066330202348</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-12.95050034452524</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-4.320989007815887</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-2.520456109418137</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-9.279233655719334</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>8.084497487210715</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>0.8643970758821423</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-12.73591407519777</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-4.360427579863172</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-2.663497682080569</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-9.023589656965626</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>8.17802442583516</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>1.049630467711823</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-12.3974649848125</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-4.379687121978261</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-2.906432763898737</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-8.808380563990337</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>8.256758320345682</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>1.205565715316862</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-12.06724413169917</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-4.439490278255968</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-3.162194140792775</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-8.629122207396794</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>8.322339696778442</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>1.33545193821868</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-11.84746823115891</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-4.486024645475633</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-3.313294393605204</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-8.485202814424117</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>8.374992371196944</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>1.43973241200395</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-11.60168983286661</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-4.532483631261644</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-3.505226167503363</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-8.384678173427794</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>8.411769146613313</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>1.512570109368202</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-11.36272678795586</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-4.606883449544081</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-3.691750488271557</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-8.32946420270131</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>8.431969087454963</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>1.55257680275397</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-11.35813491531208</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-4.651369264176623</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-3.889739397168452</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-8.322234615638683</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>8.434614020051788</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>1.557815184799575</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-11.18051005083522</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-4.705037531469197</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-3.937727262475331</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-8.362238019022696</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>8.419978840382774</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>1.528829696661086</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-11.07319427380144</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-4.790207782722834</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-4.097647438839547</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-8.448978493691618</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>8.388244979661751</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>1.465979669239476</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-11.10765596099982</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-4.862245925539891</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-4.127637803892871</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-8.59330660617603</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>8.335442775878684</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>1.361403047287869</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-11.1605485374094</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-4.908274988643847</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-4.14951370802969</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-8.799448066179002</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>8.260026260053387</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>1.212037984860333</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-11.19136027455759</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-4.993564524803488</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-4.210062089466123</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-9.072168650059581</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>8.160251880703315</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>1.014431316914885</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-11.32902135591677</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-5.041476467014008</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-4.077438395254927</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-9.412596461018428</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>8.035706923118465</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>0.767765647450795</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-11.50488917247865</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-5.120730518276851</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-4.022087468768654</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-9.817387777438325</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>7.887614682381041</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>0.4744637554087417</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-11.76500019100523</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-5.19129002527991</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-3.888292378460736</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-10.29937399619885</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>7.711280812939132</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>0.125228324295854</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-12.0290645673405</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-5.277488280480421</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-3.775293670396579</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-10.86260791872411</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>7.505222604023477</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>-0.2828772067219202</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-12.35297272768714</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-5.368188712515147</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-3.627461514257357</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-11.51073302893807</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>7.268107093002458</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>-0.752492817024508</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-12.73234563767972</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-5.470578236970777</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-3.431575868380067</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-12.24260312023004</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>7.000353617689015</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-1.282787993322844</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-13.29308846015351</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-5.557909698778318</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-3.252161954731189</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-13.0463775424421</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>6.706294060568135</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-1.865183289978022</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-13.74018469893081</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-5.637863720496526</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-3.075881607671581</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-13.93404135967325</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>6.3815437055508</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-2.508362791440199</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-14.34075092182805</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-5.739902017173369</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-2.832565904152518</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-14.9062071252785</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>6.025878450994418</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-3.212770338895474</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-15.06201456245173</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-5.829993599167038</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-2.66509235575846</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-15.96343218956046</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>5.639094391202796</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-3.978809774747705</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-15.79709910574682</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-5.912264564510877</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-2.489422315908909</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-17.10230515921094</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>5.222439578835551</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-4.804009286803284</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-16.6736939333076</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-6.031254571718609</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-2.360201248454857</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-18.30304846118077</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>4.783149606629948</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-5.674038529128363</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-17.55054235541282</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-6.138249818933804</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-2.182618256436149</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-19.58050416802478</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>4.315794526628432</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-6.59965170465559</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-18.55884332101268</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-6.256729551821412</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-2.141891734440321</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-20.93599061887837</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>3.819892026615567</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-7.58180404969335</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-19.71938252580241</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-6.356191625875549</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-2.112994016166292</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-22.37048874020376</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>3.295083236250268</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-8.621206319575709</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-20.95171162903574</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-6.453854900114505</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-2.110746379398072</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-23.88133930918428</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>2.74234102784864</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-9.71593170645907</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-22.23629026536956</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-6.548196421068237</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-2.084837853964697</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-25.43964978904586</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>2.172235688711555</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-10.84504538452584</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-23.73344452857145</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-6.647950908815562</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-2.21517453674896</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-27.0647743148489</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>1.57768654019705</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-12.02257088689491</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-25.22945761632341</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-6.724024029251654</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-2.364289650517925</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-28.75582721245116</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.9590176047407993</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-13.24786647573467</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-26.85023469146069</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-6.803855452594249</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-2.553599728390088</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-30.51032585219647</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.3171371483400935</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-14.51913329828851</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-28.5801887464489</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-6.859037147131738</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-2.853381973725635</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-32.32109234902159</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>-0.3453288115001127</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-15.83117043451563</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-30.43844352702243</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-6.883042406097465</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-3.16523583317838</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-34.14580069534303</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-1.01289537416499</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-17.15330949405475</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-32.33903048261965</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-6.921014767841794</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-3.506456625588155</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-36.00177256860997</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-1.691899647005228</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-18.49810134092666</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-34.35731247767623</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-6.930122253251873</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-3.940490051028383</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-37.88893842864778</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-2.382316188861732</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-19.86549558802086</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-36.4478508039992</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-6.912196382655292</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-4.353297254200563</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-39.78678634858947</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-3.076640744854629</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-21.24062979457968</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-38.59749477307027</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-6.897185951132863</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-4.898032532613337</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-41.70362086303415</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-3.777911515377985</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-22.62952122335466</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-40.76576888420891</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-6.838716466373663</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-5.408905604532642</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-43.55827745851551</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-4.456434595992609</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-23.97336005209742</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-42.9741652750555</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-6.776395901558848</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-5.963471422737512</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-45.42253479015248</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-5.138470090219726</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-25.32415533955166</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-45.32574069283962</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-6.663973605304212</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-6.517620525804332</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-47.20871441948405</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-5.791940984819803</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-26.61837743266217</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-47.48834289028365</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-6.555409016044413</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-7.034622919596679</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-49.04796867681593</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-6.464829145225846</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-27.95105610371907</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-49.85208292137087</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-6.400205685272196</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-7.541453526554748</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-40.10433730001294</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-3.1928162408127</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-21.47071945088951</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-39.75857741886915</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-3.066320554075753</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-21.22019029372125</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-39.2972940286286</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-2.89756078057108</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-20.88595562603686</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-38.75262796227668</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-2.698295591453184</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-20.49130390967839</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-38.14140562733846</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-2.474680900381437</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-20.04842714818735</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-37.48570864997999</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-2.234795234155717</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-19.57332514805945</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-36.79764769522242</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-1.983069259756898</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-19.07477300110254</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-36.09673483360068</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-1.726641436261862</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-18.56690867661931</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-35.3911473650726</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-1.468503415479376</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-18.05565724625074</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-34.6872185404413</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-1.210972206852426</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-17.54560762870132</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-33.98789935933063</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-0.9551274287645692</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-17.03889804615609</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-33.29221229435868</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-0.7006114544226999</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-16.53482020617151</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-32.60171160759345</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-0.4479929080611</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-16.03450028904538</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-31.90942940259222</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-0.1947225961680213</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-15.53288952735779</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-31.20869642547281</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.06163941687618672</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-15.02515554278737</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-30.4955838101392</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.322530500303804</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-14.50845157500896</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-29.77343584299948</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.5867271524048119</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-13.98520081219692</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-29.05749773965063</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>0.848651935999358</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-13.4664495648767</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-28.36645675557365</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>1.101468149248352</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-12.965738161527</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-27.72245510920945</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>1.337075097767314</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-12.49911031232461</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-27.14710622377424</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>1.547565546039417</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-12.08222657535387</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-26.65994689834276</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>1.725791988091954</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-11.7292428376129</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-26.27421484277505</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>1.866911429433967</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-11.44975082004718</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-25.99422088352674</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>1.969346761260633</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-11.24687404212073</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-25.81805977763818</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>2.033795013591121</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-11.119232011362</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-25.73825814427603</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>2.062990310574341</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-11.0614096987191</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-25.7452318663847</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>2.060438985752238</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-11.06646268727414</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-25.82407405001897</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>2.031594701881983</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-11.12358980609965</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-25.95774012938351</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>1.982693185469147</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-11.22044097950475</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-26.13024139145372</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>1.919583881010869</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-11.34543117690403</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-26.3272362440064</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>1.847513636554333</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-11.48816883117799</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-26.53938221273163</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>1.769900381038391</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-11.6418846138349</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-26.75508503865182</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>1.690985855137892</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-11.79817760826164</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-26.96539898765249</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>1.614042841040382</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-11.95056595421308</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-27.16535069717315</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>1.540890835300523</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-12.09544607476048</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-27.35236293430058</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>1.4724727143624</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-12.23095056993989</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-27.52764341175404</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>1.408346638503889</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-12.35795451886306</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-27.68801658429825</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>1.349674375753062</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-12.47415699908428</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-27.83199255133142</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>1.297001003807101</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-12.57847846505073</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-27.9612047322248</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>1.249728938861863</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-12.67210245250701</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-28.07738948741192</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>1.207222936294009</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-12.75628708577488</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-28.18453245449759</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>1.168024857107663</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-12.83392026042684</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-28.2831064424617</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>1.131961724911204</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-12.9053445622911</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-28.37418361222587</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>1.098641291385879</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-12.97133685296058</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-28.46045243754437</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>1.06707998280793</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-13.03384513479318</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-28.54467000076896</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>1.036269125110484</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-13.09486712225924</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-28.63100616188889</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>1.004683181839767</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-13.1574241939674</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-28.72019851047061</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>0.9720523070598365</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-13.22205078928586</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-28.81232450282141</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>0.9383481635074188</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-13.28880303116131</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-28.90870481585953</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>0.9030875836930432</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-13.35863784980243</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-29.01092181007771</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>0.8656916636197183</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-13.43270178493869</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-29.12114391986395</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>0.8253670851148819</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-13.51256603111643</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-29.23971784905412</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>0.7819870071475014</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-13.59848180145935</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-29.36709838961231</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>0.7353850448217157</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-13.69077862710641</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-29.50501524987494</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0.6849283871730173</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-13.79070981243246</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-29.65533332180889</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>0.6299347665269269</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-13.8996266125661</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-29.82031703659601</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.5695757444409296</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-14.01916977898372</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-30.00026464599295</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.5037422059978967</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-14.14955541761688</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-30.19599909765097</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.4321330771462309</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-14.29137981621529</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-30.40885221476729</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.3542611125485453</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-14.44560798130889</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-30.63979981770465</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.2697693099218966</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-14.61294696847689</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-30.88916493611289</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.1785394893974818</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-14.79363083710652</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-31.1544887912882</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.08147119114069699</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-14.98587801625817</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-31.43387952316395</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>-0.02074345093880156</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-15.18831771037742</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-31.72472654233835</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>-0.1271493569801718</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-15.39905835020418</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-32.02324823010738</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>-0.2363630279685436</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-15.61535986727382</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-32.32431139831471</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>-0.3465064954165543</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-15.8335028789381</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-32.62050017263382</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>-0.4548666738367052</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-16.04811402395411</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-32.90635822550499</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>-0.5594473747196642</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-16.2552397807616</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-33.17678363664263</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>-0.6583820688774046</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-16.45118342264704</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-33.42784948337369</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>-0.7502340980757616</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-16.6330995974421</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-33.65643787518088</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>-0.8338627871709012</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-16.79872915790024</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-33.85855059007159</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>-0.9078053931892586</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-16.94517509010919</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-34.03228799535454</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>-0.9713669386191726</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-17.07106096666072</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-34.17509078456026</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>-1.023611105376674</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-17.1745323766538</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-34.28481522554106</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>-1.063753612563393</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-17.25403602418151</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-34.3593181483469</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>-1.09101038496006</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-17.30801902069161</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-34.39585786927843</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>-1.104378382071582</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-17.33449480920084</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-34.39327515661704</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>-1.103433500870602</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-17.33262343874536</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-34.34938907280896</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>-1.087377848921814</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-17.30082465529054</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-34.26205637071574</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>-1.055427322766695</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-17.23754551435532</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-34.12917693436056</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>-1.006813598411619</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-17.14126432324393</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-33.95003320307153</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>-0.9412741574589512</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-17.01146115503554</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-33.72520838094266</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>-0.8590223641721598</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-16.84855858515924</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-33.45548540487762</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>-0.7603446547363097</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-16.65312391055513</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-33.14252732140312</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>-0.6458494520018911</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-16.42636213408039</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-32.78898761308712</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>-0.5165075282243993</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-16.1701959043347</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-32.40046671744356</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>-0.3743677943041148</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-15.88868316142812</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-31.98106774346899</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>-0.2209313659533578</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-15.58479691783184</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-31.5334934110734</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>-0.05718702882863574</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-15.26049549831989</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-31.05908728827034</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.1163736749108211</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-14.916752419429</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-30.55705853390154</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.300040073208687</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-14.55299465698939</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-30.03005314532046</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.492844132262935</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-14.17113943599733</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-29.47597812768039</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.6955515708133926</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-13.76967022355382</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-28.88706427195011</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.9110047412710955</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-13.34295764072683</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-28.26596254783098</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>1.138233790708673</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-12.89292251535434</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-27.59728854282862</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>1.382867081263122</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-12.40841767824196</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-26.90127581827905</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>1.637502197628574</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-11.90410387328876</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-26.14478308337118</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>1.914263826817966</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-11.35596773137018</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-25.37196162579307</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>2.196999292476978</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-10.79600019618909</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-24.50400926620812</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>2.514538242969029</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-10.1671031350561</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-32.84888474742966</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>-0.5384207968117547</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-16.21359590358849</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-32.11530431722701</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>-0.2700415968065261</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-15.68206145752771</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-31.29028060589023</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.03179197796964184</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-15.08426944544902</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-30.42857690775774</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.3470448658942246</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-14.45990001164495</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-29.53402931453545</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.6743136390937433</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-13.81173269438562</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-28.62912449113064</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>1.005371588007627</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-13.15606078133673</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-27.71213139736328</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>1.340852010853169</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-12.49163000310218</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-26.81463570068898</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>1.669199342876519</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-11.84132656215308</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-25.94280594722343</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>1.988156831575064</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-11.20962003620392</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-25.09945206353053</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>2.296696469913392</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-10.59854642934928</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-24.28176442150573</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>2.595846155736054</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-10.00606995375093</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-23.47577300854052</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>2.890716795296226</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-9.422068279794264</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-22.69728287730224</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>3.175526135937957</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-8.857993362259712</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-21.95032072989413</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>3.448801015285807</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-8.316762851051486</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-21.24038458854704</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>3.708529990903239</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-7.802360478669216</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-20.57271998745013</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>3.952793992690604</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-7.318587030950069</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-19.94183075627629</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>4.183603785568494</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-6.861460117238565</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-19.36196628697233</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>4.395746252809968</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-6.441304498587916</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-18.83498033949215</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>4.588543199369264</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>-6.059463364142294</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-18.35908851765218</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>4.76264744367027</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>-5.714643784049787</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-17.93117214192021</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>4.91919994951664</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>-5.404586039362957</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-17.5410461366372</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>5.061926910172016</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>-5.121910273251367</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-17.19486139266353</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>5.18857803228006</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>-4.87107327086309</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-16.89333066080842</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>5.298892557123518</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>-4.652591474010043</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-16.6357896982762</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>5.393113496842262</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-4.465983588601068</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-16.42109603354468</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>5.471658822773211</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-4.310421807700919</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-16.24259449727121</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>5.536963317730285</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-4.181083958301224</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-16.10519595794106</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>5.587230348513982</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-4.081528335651585</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-16.00998747748846</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>5.622062215294456</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-4.012542598254419</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-15.95460841574464</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>5.642322554414655</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-3.972416283953429</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-15.9350182412415</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>5.64948958770051</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-3.958221722424732</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-15.94180640202313</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>5.647006150186265</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-3.963140257778574</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-15.97450685859211</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>5.635042741659452</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-3.986834209188272</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-16.03335379389205</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>5.613513686673358</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-4.029473259889753</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-16.11799104150327</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>5.582549288129808</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-4.090799340402439</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-16.22909745791032</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>5.54190118749477</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-4.17130433353919</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-16.36385294125739</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>5.492601114417556</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-4.268944862437638</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-16.52648675492325</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>5.433101799811542</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-4.386785347950253</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-16.72309449073034</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>5.361173181382927</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-4.529242506894113</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-16.95662176216202</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>5.275737611258839</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-4.698450658788558</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-17.22916301145646</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>5.176028841173656</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-4.895927385277036</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-17.53659473916168</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>5.06355544665445</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-5.118684899462847</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-17.87837847295448</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>4.938514426919544</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-5.366333037464502</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-18.25664338541416</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>4.800126827664845</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-5.640414545681585</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-18.66856902666298</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>4.649424505862913</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-5.93888579508356</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-19.11012529152929</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>4.487881868896194</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-6.258826669986046</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-19.57079520881008</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>4.319346533470007</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-6.592616830161204</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-20.04316842594173</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>4.146529564943918</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-6.934886915300543</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-20.52504930964924</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>3.97023423215879</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-7.284046023209124</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-21.00914570377212</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>3.79312835851352</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-7.634810435802628</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-21.48771804122273</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>3.618043451962585</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-7.981572251976687</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-21.94792740093361</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>3.449676610769723</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-8.315028703395827</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-22.38049060169379</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>3.291424071590552</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-8.628453423898286</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-22.78485035737447</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>3.143489716643395</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-8.921442617578958</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-23.15571625810468</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>3.007809033722646</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-9.190162982778732</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-23.48784019403173</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>2.886302035230246</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-9.430811867397612</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-23.77114433680238</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>2.782655678178507</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-9.636087123381088</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-23.99898205466705</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>2.699301621916884</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-9.801172763852025</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-24.17497954509044</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>2.634913228036596</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-9.928696242844566</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-24.29788259991675</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>2.589949346539144</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-10.01774879179033</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-24.36737281646283</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>2.564526464525135</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-10.06809970388904</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-24.3794785935584</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>2.560097585783849</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-10.07687125402546</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-24.33377083748099</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>2.576819693551498</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-10.04375253137828</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-24.24025090360679</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>2.611033808329296</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-9.97599027355233</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-24.10200600606687</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>2.661610477879109</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-9.87582140043461</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-23.92171250036501</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>2.727570561919293</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-9.745185133794951</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-23.6976024889597</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>2.809560842872541</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-9.582800498294125</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-23.4303069423195</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>2.907350481225406</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-9.389124679708477</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-23.13071808009943</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>3.016954576240435</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-9.172049914120567</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-22.8023937035394</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>3.137071512155771</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-8.93415409733211</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-22.4486880159273</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>3.26647415918714</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-8.677867603046126</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-22.06963501354949</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>3.405150079848809</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-8.403215064140605</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-21.66739367038756</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>3.55230941704242</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-8.111760820382694</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-21.25479955284258</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>3.703256299803447</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-7.812805209398607</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-20.83647490814811</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>3.856299686545044</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-7.509697398534814</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-20.41567669920348</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>4.01024802271998</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-7.204797303485985</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-19.99188476803893</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>4.165291607270339</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-6.897728030503404</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-19.56440898229929</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>4.321682923988965</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-6.587989526554024</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-19.14267249792785</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>4.475974526693465</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-6.282409580068723</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-18.72832104760129</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>4.627564326777044</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-5.982180648712196</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-18.32339325599036</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>4.775706496739788</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-5.688779870083095</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-17.92850103081551</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>4.920177171143457</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-5.402650617556502</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-17.54431903150831</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>5.060729526938977</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-5.124281732863301</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-17.1822375479772</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>5.193196445201696</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-4.861926341615466</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-16.84706032077115</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>5.315820485312308</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-4.619065116778897</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-16.54336844449991</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>5.426925661304048</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-4.399017407514898</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-16.27428668111904</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>5.525368784128633</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-4.204047339946176</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-16.04008801391259</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>5.611049983298291</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-4.034352711086786</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-15.85070562291232</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>5.680335221152426</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-3.897130860353684</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-15.70830380220072</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>5.732432694242472</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-3.793949982329066</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-15.61353656168012</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>5.767103134115842</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-3.72528395659974</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-15.56484004282761</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>5.784918675854142</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-3.689999649511278</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-15.555168295946</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>5.788457068624549</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-3.682991738163726</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-15.58580699234045</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>5.777247951683854</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-3.705191788554316</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-15.65285938169587</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>5.752716944758447</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-3.753776310667639</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-15.74679620047002</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>5.718350313322166</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-3.821840633100608</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-15.86538913974332</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>5.674963280546982</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-3.907770177685022</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-15.99030803259163</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>5.629261908007767</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-3.998283353580826</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-16.13393199225348</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>5.576717317382603</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-4.102349763611458</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-16.27240524995381</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>5.52605710264178</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-4.202684100918741</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-16.4369898087528</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>5.465844111120884</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-4.32193804866543</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>